--- a/Sirison_Wu_2.xlsx
+++ b/Sirison_Wu_2.xlsx
@@ -376,10 +376,10 @@
         <v>40544</v>
       </c>
       <c r="B2" t="n">
-        <v>5075.44892770817</v>
+        <v>5075.44892770825</v>
       </c>
       <c r="C2" t="n">
-        <v>4432.25557628801</v>
+        <v>4433.10552765826</v>
       </c>
     </row>
     <row r="3">
@@ -387,10 +387,10 @@
         <v>40545</v>
       </c>
       <c r="B3" t="n">
-        <v>4921.12116632407</v>
+        <v>4921.12116632414</v>
       </c>
       <c r="C3" t="n">
-        <v>4485.14343866686</v>
+        <v>4486.60741891014</v>
       </c>
     </row>
     <row r="4">
@@ -398,10 +398,10 @@
         <v>40546</v>
       </c>
       <c r="B4" t="n">
-        <v>5103.00290915515</v>
+        <v>5103.00290915521</v>
       </c>
       <c r="C4" t="n">
-        <v>4878.37917397619</v>
+        <v>4879.59286167818</v>
       </c>
     </row>
     <row r="5">
@@ -409,10 +409,10 @@
         <v>40547</v>
       </c>
       <c r="B5" t="n">
-        <v>4938.07473410802</v>
+        <v>4938.07473410809</v>
       </c>
       <c r="C5" t="n">
-        <v>5485.57436964813</v>
+        <v>5486.5037389276</v>
       </c>
     </row>
     <row r="6">
@@ -420,10 +420,10 @@
         <v>40548</v>
       </c>
       <c r="B6" t="n">
-        <v>5138.19726992767</v>
+        <v>5138.19726992774</v>
       </c>
       <c r="C6" t="n">
-        <v>6128.34387262373</v>
+        <v>6129.40634637619</v>
       </c>
     </row>
     <row r="7">
@@ -431,10 +431,10 @@
         <v>40549</v>
       </c>
       <c r="B7" t="n">
-        <v>6046.42012315895</v>
+        <v>6046.42012315898</v>
       </c>
       <c r="C7" t="n">
-        <v>6388.43824721454</v>
+        <v>6389.46009368669</v>
       </c>
     </row>
     <row r="8">
@@ -442,10 +442,10 @@
         <v>40550</v>
       </c>
       <c r="B8" t="n">
-        <v>5799.06560982811</v>
+        <v>5799.0656098281</v>
       </c>
       <c r="C8" t="n">
-        <v>6312.77233011903</v>
+        <v>6313.3747619992</v>
       </c>
     </row>
     <row r="9">
@@ -453,10 +453,10 @@
         <v>40551</v>
       </c>
       <c r="B9" t="n">
-        <v>4921.31484218758</v>
+        <v>4921.31484218767</v>
       </c>
       <c r="C9" t="n">
-        <v>6212.36889150052</v>
+        <v>6212.84784660189</v>
       </c>
     </row>
     <row r="10">
@@ -464,10 +464,10 @@
         <v>40552</v>
       </c>
       <c r="B10" t="n">
-        <v>4708.01943912787</v>
+        <v>4708.01943912794</v>
       </c>
       <c r="C10" t="n">
-        <v>6078.60044045727</v>
+        <v>6079.07838625967</v>
       </c>
     </row>
     <row r="11">
@@ -475,10 +475,10 @@
         <v>40553</v>
       </c>
       <c r="B11" t="n">
-        <v>5505.76505227973</v>
+        <v>5505.7650522798</v>
       </c>
       <c r="C11" t="n">
-        <v>5941.92250120114</v>
+        <v>5942.03838284814</v>
       </c>
     </row>
     <row r="12">
@@ -486,10 +486,10 @@
         <v>40554</v>
       </c>
       <c r="B12" t="n">
-        <v>5431.17515518762</v>
+        <v>5431.17515518768</v>
       </c>
       <c r="C12" t="n">
-        <v>6037.02831146445</v>
+        <v>6036.95778167148</v>
       </c>
     </row>
     <row r="13">
@@ -497,10 +497,10 @@
         <v>40555</v>
       </c>
       <c r="B13" t="n">
-        <v>5247.95152264447</v>
+        <v>5247.95152264454</v>
       </c>
       <c r="C13" t="n">
-        <v>6286.40869452007</v>
+        <v>6286.74947452705</v>
       </c>
     </row>
     <row r="14">
@@ -508,10 +508,10 @@
         <v>40556</v>
       </c>
       <c r="B14" t="n">
-        <v>4699.73073171955</v>
+        <v>4699.73073171958</v>
       </c>
       <c r="C14" t="n">
-        <v>6351.14475358687</v>
+        <v>6351.8039018566</v>
       </c>
     </row>
     <row r="15">
@@ -519,10 +519,10 @@
         <v>40557</v>
       </c>
       <c r="B15" t="n">
-        <v>4703.88962410819</v>
+        <v>4703.88962410817</v>
       </c>
       <c r="C15" t="n">
-        <v>6254.31816862416</v>
+        <v>6254.90112511831</v>
       </c>
     </row>
     <row r="16">
@@ -530,10 +530,10 @@
         <v>40558</v>
       </c>
       <c r="B16" t="n">
-        <v>5416.81798957982</v>
+        <v>5416.81798957991</v>
       </c>
       <c r="C16" t="n">
-        <v>6167.98158887822</v>
+        <v>6168.6792562483</v>
       </c>
     </row>
     <row r="17">
@@ -541,10 +541,10 @@
         <v>40559</v>
       </c>
       <c r="B17" t="n">
-        <v>5406.3751159708</v>
+        <v>5406.37511597088</v>
       </c>
       <c r="C17" t="n">
-        <v>5954.69462375156</v>
+        <v>5955.50620024148</v>
       </c>
     </row>
     <row r="18">
@@ -552,10 +552,10 @@
         <v>40560</v>
       </c>
       <c r="B18" t="n">
-        <v>4506.74475120379</v>
+        <v>4506.74475120386</v>
       </c>
       <c r="C18" t="n">
-        <v>5600.420692114</v>
+        <v>5600.91745582833</v>
       </c>
     </row>
     <row r="19">
@@ -563,10 +563,10 @@
         <v>40561</v>
       </c>
       <c r="B19" t="n">
-        <v>4495.01138965659</v>
+        <v>4495.01138965666</v>
       </c>
       <c r="C19" t="n">
-        <v>5368.16931066097</v>
+        <v>5368.5491738803</v>
       </c>
     </row>
     <row r="20">
@@ -574,10 +574,10 @@
         <v>40562</v>
       </c>
       <c r="B20" t="n">
-        <v>4340.48739644268</v>
+        <v>4340.48739644275</v>
       </c>
       <c r="C20" t="n">
-        <v>5258.19778030102</v>
+        <v>5259.05224739928</v>
       </c>
     </row>
     <row r="21">
@@ -585,10 +585,10 @@
         <v>40563</v>
       </c>
       <c r="B21" t="n">
-        <v>4495.0918230747</v>
+        <v>4495.09182307473</v>
       </c>
       <c r="C21" t="n">
-        <v>5079.29942850617</v>
+        <v>5080.5821621743</v>
       </c>
     </row>
     <row r="22">
@@ -596,10 +596,10 @@
         <v>40564</v>
       </c>
       <c r="B22" t="n">
-        <v>4867.36268950769</v>
+        <v>4867.36268950767</v>
       </c>
       <c r="C22" t="n">
-        <v>4927.13733575896</v>
+        <v>4928.54400963818</v>
       </c>
     </row>
     <row r="23">
@@ -607,10 +607,10 @@
         <v>40565</v>
       </c>
       <c r="B23" t="n">
-        <v>5221.69139610118</v>
+        <v>5221.69139610127</v>
       </c>
       <c r="C23" t="n">
-        <v>4948.84006375916</v>
+        <v>4950.47069020553</v>
       </c>
     </row>
     <row r="24">
@@ -618,10 +618,10 @@
         <v>40566</v>
       </c>
       <c r="B24" t="n">
-        <v>4676.1557160677</v>
+        <v>4676.15571606778</v>
       </c>
       <c r="C24" t="n">
-        <v>5003.49614184728</v>
+        <v>5005.16801301725</v>
       </c>
     </row>
     <row r="25">
@@ -629,10 +629,10 @@
         <v>40567</v>
       </c>
       <c r="B25" t="n">
-        <v>4151.11337839836</v>
+        <v>4151.11337839842</v>
       </c>
       <c r="C25" t="n">
-        <v>5015.32187338775</v>
+        <v>5016.40071166004</v>
       </c>
     </row>
     <row r="26">
@@ -640,10 +640,10 @@
         <v>40568</v>
       </c>
       <c r="B26" t="n">
-        <v>4194.36420195596</v>
+        <v>4194.36420195602</v>
       </c>
       <c r="C26" t="n">
-        <v>5156.36171803265</v>
+        <v>5156.80202407778</v>
       </c>
     </row>
     <row r="27">
@@ -651,10 +651,10 @@
         <v>40569</v>
       </c>
       <c r="B27" t="n">
-        <v>4020.74429191139</v>
+        <v>4020.74429191146</v>
       </c>
       <c r="C27" t="n">
-        <v>5397.7819396693</v>
+        <v>5398.10726538562</v>
       </c>
     </row>
     <row r="28">
@@ -662,10 +662,10 @@
         <v>40570</v>
       </c>
       <c r="B28" t="n">
-        <v>4339.17812159307</v>
+        <v>4339.1781215931</v>
       </c>
       <c r="C28" t="n">
-        <v>5501.33748264381</v>
+        <v>5501.74922400156</v>
       </c>
     </row>
     <row r="29">
@@ -673,10 +673,10 @@
         <v>40571</v>
       </c>
       <c r="B29" t="n">
-        <v>4563.0251054362</v>
+        <v>4563.02510543618</v>
       </c>
       <c r="C29" t="n">
-        <v>5509.01767598872</v>
+        <v>5509.63958213519</v>
       </c>
     </row>
     <row r="30">
@@ -684,10 +684,10 @@
         <v>40572</v>
       </c>
       <c r="B30" t="n">
-        <v>4302.5594946825</v>
+        <v>4302.55949468259</v>
       </c>
       <c r="C30" t="n">
-        <v>5546.75218752931</v>
+        <v>5548.17808016121</v>
       </c>
     </row>
     <row r="31">
@@ -695,10 +695,10 @@
         <v>40573</v>
       </c>
       <c r="B31" t="n">
-        <v>4474.89820543591</v>
+        <v>4474.89820543599</v>
       </c>
       <c r="C31" t="n">
-        <v>5443.36092011844</v>
+        <v>5445.75105233462</v>
       </c>
     </row>
     <row r="32">
@@ -706,10 +706,10 @@
         <v>40574</v>
       </c>
       <c r="B32" t="n">
-        <v>4564.08720139195</v>
+        <v>4564.08720139201</v>
       </c>
       <c r="C32" t="n">
-        <v>5156.48025339491</v>
+        <v>5159.21168883349</v>
       </c>
     </row>
     <row r="33">
@@ -717,10 +717,10 @@
         <v>40575</v>
       </c>
       <c r="B33" t="n">
-        <v>4654.95675820354</v>
+        <v>4654.95675820361</v>
       </c>
       <c r="C33" t="n">
-        <v>4951.66955118321</v>
+        <v>4954.57245735484</v>
       </c>
     </row>
     <row r="34">
@@ -728,10 +728,10 @@
         <v>40576</v>
       </c>
       <c r="B34" t="n">
-        <v>4302.90085108569</v>
+        <v>4302.90085108577</v>
       </c>
       <c r="C34" t="n">
-        <v>4885.24072451542</v>
+        <v>4888.54958432794</v>
       </c>
     </row>
     <row r="35">
@@ -739,10 +739,10 @@
         <v>40577</v>
       </c>
       <c r="B35" t="n">
-        <v>3863.41814691667</v>
+        <v>3863.4181469167</v>
       </c>
       <c r="C35" t="n">
-        <v>4825.58903010763</v>
+        <v>4829.03799204286</v>
       </c>
     </row>
     <row r="36">
@@ -750,10 +750,10 @@
         <v>40578</v>
       </c>
       <c r="B36" t="n">
-        <v>3993.02335842154</v>
+        <v>3993.02335842152</v>
       </c>
       <c r="C36" t="n">
-        <v>4859.81911281604</v>
+        <v>4863.15523187489</v>
       </c>
     </row>
     <row r="37">
@@ -761,10 +761,10 @@
         <v>40579</v>
       </c>
       <c r="B37" t="n">
-        <v>5278.72932596822</v>
+        <v>5278.7293259683</v>
       </c>
       <c r="C37" t="n">
-        <v>5078.90312829222</v>
+        <v>5082.46115456295</v>
       </c>
     </row>
     <row r="38">
@@ -772,10 +772,10 @@
         <v>40580</v>
       </c>
       <c r="B38" t="n">
-        <v>5066.76368239051</v>
+        <v>5066.7636823906</v>
       </c>
       <c r="C38" t="n">
-        <v>5247.27306398977</v>
+        <v>5251.06555755702</v>
       </c>
     </row>
     <row r="39">
@@ -783,10 +783,10 @@
         <v>40581</v>
       </c>
       <c r="B39" t="n">
-        <v>4736.75165718391</v>
+        <v>4736.75165718398</v>
       </c>
       <c r="C39" t="n">
-        <v>5196.12865349356</v>
+        <v>5199.53363395767</v>
       </c>
     </row>
     <row r="40">
@@ -794,10 +794,10 @@
         <v>40582</v>
       </c>
       <c r="B40" t="n">
-        <v>4349.7463786674</v>
+        <v>4349.74637866747</v>
       </c>
       <c r="C40" t="n">
-        <v>5102.25461889103</v>
+        <v>5105.20428477219</v>
       </c>
     </row>
     <row r="41">
@@ -805,10 +805,10 @@
         <v>40583</v>
       </c>
       <c r="B41" t="n">
-        <v>4117.62969371224</v>
+        <v>4117.62969371231</v>
       </c>
       <c r="C41" t="n">
-        <v>5024.04412501421</v>
+        <v>5026.92336845573</v>
       </c>
     </row>
     <row r="42">
@@ -816,10 +816,10 @@
         <v>40584</v>
       </c>
       <c r="B42" t="n">
-        <v>4343.04966240944</v>
+        <v>4343.04966240947</v>
       </c>
       <c r="C42" t="n">
-        <v>4882.77139466146</v>
+        <v>4885.49876816491</v>
       </c>
     </row>
     <row r="43">
@@ -827,10 +827,10 @@
         <v>40585</v>
       </c>
       <c r="B43" t="n">
-        <v>4327.95874314569</v>
+        <v>4327.95874314567</v>
       </c>
       <c r="C43" t="n">
-        <v>4840.30155217686</v>
+        <v>4842.83796981501</v>
       </c>
     </row>
     <row r="44">
@@ -838,10 +838,10 @@
         <v>40586</v>
       </c>
       <c r="B44" t="n">
-        <v>4349.53540488383</v>
+        <v>4349.53540488392</v>
       </c>
       <c r="C44" t="n">
-        <v>5030.50359617927</v>
+        <v>5033.38442701287</v>
       </c>
     </row>
     <row r="45">
@@ -849,10 +849,10 @@
         <v>40587</v>
       </c>
       <c r="B45" t="n">
-        <v>4673.74148138032</v>
+        <v>4673.74148138041</v>
       </c>
       <c r="C45" t="n">
-        <v>5215.05106236293</v>
+        <v>5218.47555597735</v>
       </c>
     </row>
     <row r="46">
@@ -860,10 +860,10 @@
         <v>40588</v>
       </c>
       <c r="B46" t="n">
-        <v>4934.65127971317</v>
+        <v>4934.65127971323</v>
       </c>
       <c r="C46" t="n">
-        <v>5170.08892141792</v>
+        <v>5173.47473450441</v>
       </c>
     </row>
     <row r="47">
@@ -871,10 +871,10 @@
         <v>40589</v>
       </c>
       <c r="B47" t="n">
-        <v>4556.61216143863</v>
+        <v>4556.6121614387</v>
       </c>
       <c r="C47" t="n">
-        <v>5004.29427569444</v>
+        <v>5007.39151440168</v>
       </c>
     </row>
     <row r="48">
@@ -882,10 +882,10 @@
         <v>40590</v>
       </c>
       <c r="B48" t="n">
-        <v>4148.11203156038</v>
+        <v>4148.11203156045</v>
       </c>
       <c r="C48" t="n">
-        <v>4758.17267652707</v>
+        <v>4761.06152419331</v>
       </c>
     </row>
     <row r="49">
@@ -893,10 +893,10 @@
         <v>40591</v>
       </c>
       <c r="B49" t="n">
-        <v>4064.77430781755</v>
+        <v>4064.77430781757</v>
       </c>
       <c r="C49" t="n">
-        <v>4412.73842154377</v>
+        <v>4415.08073301602</v>
       </c>
     </row>
     <row r="50">
@@ -904,10 +904,10 @@
         <v>40592</v>
       </c>
       <c r="B50" t="n">
-        <v>4260.97868864433</v>
+        <v>4260.97868864431</v>
       </c>
       <c r="C50" t="n">
-        <v>4208.31050075189</v>
+        <v>4209.97587105821</v>
       </c>
     </row>
     <row r="51">
@@ -915,10 +915,10 @@
         <v>40593</v>
       </c>
       <c r="B51" t="n">
-        <v>4448.92358445727</v>
+        <v>4448.92358445736</v>
       </c>
       <c r="C51" t="n">
-        <v>4331.38690500452</v>
+        <v>4332.86779679008</v>
       </c>
     </row>
     <row r="52">
@@ -926,10 +926,10 @@
         <v>40594</v>
       </c>
       <c r="B52" t="n">
-        <v>3911.17347885038</v>
+        <v>3911.17347885047</v>
       </c>
       <c r="C52" t="n">
-        <v>4618.51294220097</v>
+        <v>4620.19879864146</v>
       </c>
     </row>
     <row r="53">
@@ -937,10 +937,10 @@
         <v>40595</v>
       </c>
       <c r="B53" t="n">
-        <v>3787.45125760339</v>
+        <v>3787.45125760346</v>
       </c>
       <c r="C53" t="n">
-        <v>4838.56180925241</v>
+        <v>4840.37658558095</v>
       </c>
     </row>
     <row r="54">
@@ -948,10 +948,10 @@
         <v>40596</v>
       </c>
       <c r="B54" t="n">
-        <v>3729.78524709462</v>
+        <v>3729.78524709469</v>
       </c>
       <c r="C54" t="n">
-        <v>4943.61159884348</v>
+        <v>4945.7156854145</v>
       </c>
     </row>
     <row r="55">
@@ -959,10 +959,10 @@
         <v>40597</v>
       </c>
       <c r="B55" t="n">
-        <v>3438.60625397737</v>
+        <v>3438.60625397744</v>
       </c>
       <c r="C55" t="n">
-        <v>4794.34294355988</v>
+        <v>4796.94872811785</v>
       </c>
     </row>
     <row r="56">
@@ -970,10 +970,10 @@
         <v>40598</v>
       </c>
       <c r="B56" t="n">
-        <v>2929.95657312734</v>
+        <v>2929.95657312736</v>
       </c>
       <c r="C56" t="n">
-        <v>4289.1966466835</v>
+        <v>4291.70998302303</v>
       </c>
     </row>
     <row r="57">
@@ -981,10 +981,10 @@
         <v>40599</v>
       </c>
       <c r="B57" t="n">
-        <v>3897.95342969205</v>
+        <v>3897.95342969202</v>
       </c>
       <c r="C57" t="n">
-        <v>3743.02942847225</v>
+        <v>3744.92149339249</v>
       </c>
     </row>
     <row r="58">
@@ -992,10 +992,10 @@
         <v>40600</v>
       </c>
       <c r="B58" t="n">
-        <v>4102.61575141852</v>
+        <v>4102.61575141861</v>
       </c>
       <c r="C58" t="n">
-        <v>3442.8510529609</v>
+        <v>3444.28035985388</v>
       </c>
     </row>
     <row r="59">
@@ -1003,10 +1003,10 @@
         <v>40601</v>
       </c>
       <c r="B59" t="n">
-        <v>3330.2466939281</v>
+        <v>3330.24669392818</v>
       </c>
       <c r="C59" t="n">
-        <v>3350.68915148869</v>
+        <v>3351.78070446219</v>
       </c>
     </row>
     <row r="60">
@@ -1014,10 +1014,10 @@
         <v>40602</v>
       </c>
       <c r="B60" t="n">
-        <v>3274.7122036043</v>
+        <v>3274.71220360437</v>
       </c>
       <c r="C60" t="n">
-        <v>3412.13765702708</v>
+        <v>3412.82571998967</v>
       </c>
     </row>
   </sheetData>

--- a/Sirison_Wu_2.xlsx
+++ b/Sirison_Wu_2.xlsx
@@ -376,10 +376,10 @@
         <v>40544</v>
       </c>
       <c r="B2" t="n">
-        <v>5075.44892770825</v>
+        <v>5075.44892770817</v>
       </c>
       <c r="C2" t="n">
-        <v>4433.10552765826</v>
+        <v>4432.25557628801</v>
       </c>
     </row>
     <row r="3">
@@ -387,10 +387,10 @@
         <v>40545</v>
       </c>
       <c r="B3" t="n">
-        <v>4921.12116632414</v>
+        <v>4921.12116632407</v>
       </c>
       <c r="C3" t="n">
-        <v>4486.60741891014</v>
+        <v>4485.14343866686</v>
       </c>
     </row>
     <row r="4">
@@ -398,10 +398,10 @@
         <v>40546</v>
       </c>
       <c r="B4" t="n">
-        <v>5103.00290915521</v>
+        <v>5103.00290915515</v>
       </c>
       <c r="C4" t="n">
-        <v>4879.59286167818</v>
+        <v>4878.37917397619</v>
       </c>
     </row>
     <row r="5">
@@ -409,10 +409,10 @@
         <v>40547</v>
       </c>
       <c r="B5" t="n">
-        <v>4938.07473410809</v>
+        <v>4938.07473410802</v>
       </c>
       <c r="C5" t="n">
-        <v>5486.5037389276</v>
+        <v>5485.57436964813</v>
       </c>
     </row>
     <row r="6">
@@ -420,10 +420,10 @@
         <v>40548</v>
       </c>
       <c r="B6" t="n">
-        <v>5138.19726992774</v>
+        <v>5138.19726992767</v>
       </c>
       <c r="C6" t="n">
-        <v>6129.40634637619</v>
+        <v>6128.34387262373</v>
       </c>
     </row>
     <row r="7">
@@ -431,10 +431,10 @@
         <v>40549</v>
       </c>
       <c r="B7" t="n">
-        <v>6046.42012315898</v>
+        <v>6046.42012315895</v>
       </c>
       <c r="C7" t="n">
-        <v>6389.46009368669</v>
+        <v>6388.43824721454</v>
       </c>
     </row>
     <row r="8">
@@ -442,10 +442,10 @@
         <v>40550</v>
       </c>
       <c r="B8" t="n">
-        <v>5799.0656098281</v>
+        <v>5799.06560982811</v>
       </c>
       <c r="C8" t="n">
-        <v>6313.3747619992</v>
+        <v>6312.77233011903</v>
       </c>
     </row>
     <row r="9">
@@ -453,10 +453,10 @@
         <v>40551</v>
       </c>
       <c r="B9" t="n">
-        <v>4921.31484218767</v>
+        <v>4921.31484218758</v>
       </c>
       <c r="C9" t="n">
-        <v>6212.84784660189</v>
+        <v>6212.36889150052</v>
       </c>
     </row>
     <row r="10">
@@ -464,10 +464,10 @@
         <v>40552</v>
       </c>
       <c r="B10" t="n">
-        <v>4708.01943912794</v>
+        <v>4708.01943912787</v>
       </c>
       <c r="C10" t="n">
-        <v>6079.07838625967</v>
+        <v>6078.60044045727</v>
       </c>
     </row>
     <row r="11">
@@ -475,10 +475,10 @@
         <v>40553</v>
       </c>
       <c r="B11" t="n">
-        <v>5505.7650522798</v>
+        <v>5505.76505227973</v>
       </c>
       <c r="C11" t="n">
-        <v>5942.03838284814</v>
+        <v>5941.92250120114</v>
       </c>
     </row>
     <row r="12">
@@ -486,10 +486,10 @@
         <v>40554</v>
       </c>
       <c r="B12" t="n">
-        <v>5431.17515518768</v>
+        <v>5431.17515518762</v>
       </c>
       <c r="C12" t="n">
-        <v>6036.95778167148</v>
+        <v>6037.02831146445</v>
       </c>
     </row>
     <row r="13">
@@ -497,10 +497,10 @@
         <v>40555</v>
       </c>
       <c r="B13" t="n">
-        <v>5247.95152264454</v>
+        <v>5247.95152264447</v>
       </c>
       <c r="C13" t="n">
-        <v>6286.74947452705</v>
+        <v>6286.40869452007</v>
       </c>
     </row>
     <row r="14">
@@ -508,10 +508,10 @@
         <v>40556</v>
       </c>
       <c r="B14" t="n">
-        <v>4699.73073171958</v>
+        <v>4699.73073171955</v>
       </c>
       <c r="C14" t="n">
-        <v>6351.8039018566</v>
+        <v>6351.14475358687</v>
       </c>
     </row>
     <row r="15">
@@ -519,10 +519,10 @@
         <v>40557</v>
       </c>
       <c r="B15" t="n">
-        <v>4703.88962410817</v>
+        <v>4703.88962410819</v>
       </c>
       <c r="C15" t="n">
-        <v>6254.90112511831</v>
+        <v>6254.31816862416</v>
       </c>
     </row>
     <row r="16">
@@ -530,10 +530,10 @@
         <v>40558</v>
       </c>
       <c r="B16" t="n">
-        <v>5416.81798957991</v>
+        <v>5416.81798957982</v>
       </c>
       <c r="C16" t="n">
-        <v>6168.6792562483</v>
+        <v>6167.98158887822</v>
       </c>
     </row>
     <row r="17">
@@ -541,10 +541,10 @@
         <v>40559</v>
       </c>
       <c r="B17" t="n">
-        <v>5406.37511597088</v>
+        <v>5406.3751159708</v>
       </c>
       <c r="C17" t="n">
-        <v>5955.50620024148</v>
+        <v>5954.69462375156</v>
       </c>
     </row>
     <row r="18">
@@ -552,10 +552,10 @@
         <v>40560</v>
       </c>
       <c r="B18" t="n">
-        <v>4506.74475120386</v>
+        <v>4506.74475120379</v>
       </c>
       <c r="C18" t="n">
-        <v>5600.91745582833</v>
+        <v>5600.420692114</v>
       </c>
     </row>
     <row r="19">
@@ -563,10 +563,10 @@
         <v>40561</v>
       </c>
       <c r="B19" t="n">
-        <v>4495.01138965666</v>
+        <v>4495.01138965659</v>
       </c>
       <c r="C19" t="n">
-        <v>5368.5491738803</v>
+        <v>5368.16931066097</v>
       </c>
     </row>
     <row r="20">
@@ -574,10 +574,10 @@
         <v>40562</v>
       </c>
       <c r="B20" t="n">
-        <v>4340.48739644275</v>
+        <v>4340.48739644268</v>
       </c>
       <c r="C20" t="n">
-        <v>5259.05224739928</v>
+        <v>5258.19778030102</v>
       </c>
     </row>
     <row r="21">
@@ -585,10 +585,10 @@
         <v>40563</v>
       </c>
       <c r="B21" t="n">
-        <v>4495.09182307473</v>
+        <v>4495.0918230747</v>
       </c>
       <c r="C21" t="n">
-        <v>5080.5821621743</v>
+        <v>5079.29942850617</v>
       </c>
     </row>
     <row r="22">
@@ -596,10 +596,10 @@
         <v>40564</v>
       </c>
       <c r="B22" t="n">
-        <v>4867.36268950767</v>
+        <v>4867.36268950769</v>
       </c>
       <c r="C22" t="n">
-        <v>4928.54400963818</v>
+        <v>4927.13733575896</v>
       </c>
     </row>
     <row r="23">
@@ -607,10 +607,10 @@
         <v>40565</v>
       </c>
       <c r="B23" t="n">
-        <v>5221.69139610127</v>
+        <v>5221.69139610118</v>
       </c>
       <c r="C23" t="n">
-        <v>4950.47069020553</v>
+        <v>4948.84006375916</v>
       </c>
     </row>
     <row r="24">
@@ -618,10 +618,10 @@
         <v>40566</v>
       </c>
       <c r="B24" t="n">
-        <v>4676.15571606778</v>
+        <v>4676.1557160677</v>
       </c>
       <c r="C24" t="n">
-        <v>5005.16801301725</v>
+        <v>5003.49614184728</v>
       </c>
     </row>
     <row r="25">
@@ -629,10 +629,10 @@
         <v>40567</v>
       </c>
       <c r="B25" t="n">
-        <v>4151.11337839842</v>
+        <v>4151.11337839836</v>
       </c>
       <c r="C25" t="n">
-        <v>5016.40071166004</v>
+        <v>5015.32187338775</v>
       </c>
     </row>
     <row r="26">
@@ -640,10 +640,10 @@
         <v>40568</v>
       </c>
       <c r="B26" t="n">
-        <v>4194.36420195602</v>
+        <v>4194.36420195596</v>
       </c>
       <c r="C26" t="n">
-        <v>5156.80202407778</v>
+        <v>5156.36171803265</v>
       </c>
     </row>
     <row r="27">
@@ -651,10 +651,10 @@
         <v>40569</v>
       </c>
       <c r="B27" t="n">
-        <v>4020.74429191146</v>
+        <v>4020.74429191139</v>
       </c>
       <c r="C27" t="n">
-        <v>5398.10726538562</v>
+        <v>5397.7819396693</v>
       </c>
     </row>
     <row r="28">
@@ -662,10 +662,10 @@
         <v>40570</v>
       </c>
       <c r="B28" t="n">
-        <v>4339.1781215931</v>
+        <v>4339.17812159307</v>
       </c>
       <c r="C28" t="n">
-        <v>5501.74922400156</v>
+        <v>5501.33748264381</v>
       </c>
     </row>
     <row r="29">
@@ -673,10 +673,10 @@
         <v>40571</v>
       </c>
       <c r="B29" t="n">
-        <v>4563.02510543618</v>
+        <v>4563.0251054362</v>
       </c>
       <c r="C29" t="n">
-        <v>5509.63958213519</v>
+        <v>5509.01767598872</v>
       </c>
     </row>
     <row r="30">
@@ -684,10 +684,10 @@
         <v>40572</v>
       </c>
       <c r="B30" t="n">
-        <v>4302.55949468259</v>
+        <v>4302.5594946825</v>
       </c>
       <c r="C30" t="n">
-        <v>5548.17808016121</v>
+        <v>5546.75218752931</v>
       </c>
     </row>
     <row r="31">
@@ -695,10 +695,10 @@
         <v>40573</v>
       </c>
       <c r="B31" t="n">
-        <v>4474.89820543599</v>
+        <v>4474.89820543591</v>
       </c>
       <c r="C31" t="n">
-        <v>5445.75105233462</v>
+        <v>5443.36092011844</v>
       </c>
     </row>
     <row r="32">
@@ -706,10 +706,10 @@
         <v>40574</v>
       </c>
       <c r="B32" t="n">
-        <v>4564.08720139201</v>
+        <v>4564.08720139195</v>
       </c>
       <c r="C32" t="n">
-        <v>5159.21168883349</v>
+        <v>5156.48025339491</v>
       </c>
     </row>
     <row r="33">
@@ -717,10 +717,10 @@
         <v>40575</v>
       </c>
       <c r="B33" t="n">
-        <v>4654.95675820361</v>
+        <v>4654.95675820354</v>
       </c>
       <c r="C33" t="n">
-        <v>4954.57245735484</v>
+        <v>4951.66955118321</v>
       </c>
     </row>
     <row r="34">
@@ -728,10 +728,10 @@
         <v>40576</v>
       </c>
       <c r="B34" t="n">
-        <v>4302.90085108577</v>
+        <v>4302.90085108569</v>
       </c>
       <c r="C34" t="n">
-        <v>4888.54958432794</v>
+        <v>4885.24072451542</v>
       </c>
     </row>
     <row r="35">
@@ -739,10 +739,10 @@
         <v>40577</v>
       </c>
       <c r="B35" t="n">
-        <v>3863.4181469167</v>
+        <v>3863.41814691667</v>
       </c>
       <c r="C35" t="n">
-        <v>4829.03799204286</v>
+        <v>4825.58903010763</v>
       </c>
     </row>
     <row r="36">
@@ -750,10 +750,10 @@
         <v>40578</v>
       </c>
       <c r="B36" t="n">
-        <v>3993.02335842152</v>
+        <v>3993.02335842154</v>
       </c>
       <c r="C36" t="n">
-        <v>4863.15523187489</v>
+        <v>4859.81911281604</v>
       </c>
     </row>
     <row r="37">
@@ -761,10 +761,10 @@
         <v>40579</v>
       </c>
       <c r="B37" t="n">
-        <v>5278.7293259683</v>
+        <v>5278.72932596822</v>
       </c>
       <c r="C37" t="n">
-        <v>5082.46115456295</v>
+        <v>5078.90312829222</v>
       </c>
     </row>
     <row r="38">
@@ -772,10 +772,10 @@
         <v>40580</v>
       </c>
       <c r="B38" t="n">
-        <v>5066.7636823906</v>
+        <v>5066.76368239051</v>
       </c>
       <c r="C38" t="n">
-        <v>5251.06555755702</v>
+        <v>5247.27306398977</v>
       </c>
     </row>
     <row r="39">
@@ -783,10 +783,10 @@
         <v>40581</v>
       </c>
       <c r="B39" t="n">
-        <v>4736.75165718398</v>
+        <v>4736.75165718391</v>
       </c>
       <c r="C39" t="n">
-        <v>5199.53363395767</v>
+        <v>5196.12865349356</v>
       </c>
     </row>
     <row r="40">
@@ -794,10 +794,10 @@
         <v>40582</v>
       </c>
       <c r="B40" t="n">
-        <v>4349.74637866747</v>
+        <v>4349.7463786674</v>
       </c>
       <c r="C40" t="n">
-        <v>5105.20428477219</v>
+        <v>5102.25461889103</v>
       </c>
     </row>
     <row r="41">
@@ -805,10 +805,10 @@
         <v>40583</v>
       </c>
       <c r="B41" t="n">
-        <v>4117.62969371231</v>
+        <v>4117.62969371224</v>
       </c>
       <c r="C41" t="n">
-        <v>5026.92336845573</v>
+        <v>5024.04412501421</v>
       </c>
     </row>
     <row r="42">
@@ -816,10 +816,10 @@
         <v>40584</v>
       </c>
       <c r="B42" t="n">
-        <v>4343.04966240947</v>
+        <v>4343.04966240944</v>
       </c>
       <c r="C42" t="n">
-        <v>4885.49876816491</v>
+        <v>4882.77139466146</v>
       </c>
     </row>
     <row r="43">
@@ -827,10 +827,10 @@
         <v>40585</v>
       </c>
       <c r="B43" t="n">
-        <v>4327.95874314567</v>
+        <v>4327.95874314569</v>
       </c>
       <c r="C43" t="n">
-        <v>4842.83796981501</v>
+        <v>4840.30155217686</v>
       </c>
     </row>
     <row r="44">
@@ -838,10 +838,10 @@
         <v>40586</v>
       </c>
       <c r="B44" t="n">
-        <v>4349.53540488392</v>
+        <v>4349.53540488383</v>
       </c>
       <c r="C44" t="n">
-        <v>5033.38442701287</v>
+        <v>5030.50359617927</v>
       </c>
     </row>
     <row r="45">
@@ -849,10 +849,10 @@
         <v>40587</v>
       </c>
       <c r="B45" t="n">
-        <v>4673.74148138041</v>
+        <v>4673.74148138032</v>
       </c>
       <c r="C45" t="n">
-        <v>5218.47555597735</v>
+        <v>5215.05106236293</v>
       </c>
     </row>
     <row r="46">
@@ -860,10 +860,10 @@
         <v>40588</v>
       </c>
       <c r="B46" t="n">
-        <v>4934.65127971323</v>
+        <v>4934.65127971317</v>
       </c>
       <c r="C46" t="n">
-        <v>5173.47473450441</v>
+        <v>5170.08892141792</v>
       </c>
     </row>
     <row r="47">
@@ -871,10 +871,10 @@
         <v>40589</v>
       </c>
       <c r="B47" t="n">
-        <v>4556.6121614387</v>
+        <v>4556.61216143863</v>
       </c>
       <c r="C47" t="n">
-        <v>5007.39151440168</v>
+        <v>5004.29427569444</v>
       </c>
     </row>
     <row r="48">
@@ -882,10 +882,10 @@
         <v>40590</v>
       </c>
       <c r="B48" t="n">
-        <v>4148.11203156045</v>
+        <v>4148.11203156038</v>
       </c>
       <c r="C48" t="n">
-        <v>4761.06152419331</v>
+        <v>4758.17267652707</v>
       </c>
     </row>
     <row r="49">
@@ -893,10 +893,10 @@
         <v>40591</v>
       </c>
       <c r="B49" t="n">
-        <v>4064.77430781757</v>
+        <v>4064.77430781755</v>
       </c>
       <c r="C49" t="n">
-        <v>4415.08073301602</v>
+        <v>4412.73842154377</v>
       </c>
     </row>
     <row r="50">
@@ -904,10 +904,10 @@
         <v>40592</v>
       </c>
       <c r="B50" t="n">
-        <v>4260.97868864431</v>
+        <v>4260.97868864433</v>
       </c>
       <c r="C50" t="n">
-        <v>4209.97587105821</v>
+        <v>4208.31050075189</v>
       </c>
     </row>
     <row r="51">
@@ -915,10 +915,10 @@
         <v>40593</v>
       </c>
       <c r="B51" t="n">
-        <v>4448.92358445736</v>
+        <v>4448.92358445727</v>
       </c>
       <c r="C51" t="n">
-        <v>4332.86779679008</v>
+        <v>4331.38690500452</v>
       </c>
     </row>
     <row r="52">
@@ -926,10 +926,10 @@
         <v>40594</v>
       </c>
       <c r="B52" t="n">
-        <v>3911.17347885047</v>
+        <v>3911.17347885038</v>
       </c>
       <c r="C52" t="n">
-        <v>4620.19879864146</v>
+        <v>4618.51294220097</v>
       </c>
     </row>
     <row r="53">
@@ -937,10 +937,10 @@
         <v>40595</v>
       </c>
       <c r="B53" t="n">
-        <v>3787.45125760346</v>
+        <v>3787.45125760339</v>
       </c>
       <c r="C53" t="n">
-        <v>4840.37658558095</v>
+        <v>4838.56180925241</v>
       </c>
     </row>
     <row r="54">
@@ -948,10 +948,10 @@
         <v>40596</v>
       </c>
       <c r="B54" t="n">
-        <v>3729.78524709469</v>
+        <v>3729.78524709462</v>
       </c>
       <c r="C54" t="n">
-        <v>4945.7156854145</v>
+        <v>4943.61159884348</v>
       </c>
     </row>
     <row r="55">
@@ -959,10 +959,10 @@
         <v>40597</v>
       </c>
       <c r="B55" t="n">
-        <v>3438.60625397744</v>
+        <v>3438.60625397737</v>
       </c>
       <c r="C55" t="n">
-        <v>4796.94872811785</v>
+        <v>4794.34294355988</v>
       </c>
     </row>
     <row r="56">
@@ -970,10 +970,10 @@
         <v>40598</v>
       </c>
       <c r="B56" t="n">
-        <v>2929.95657312736</v>
+        <v>2929.95657312734</v>
       </c>
       <c r="C56" t="n">
-        <v>4291.70998302303</v>
+        <v>4289.1966466835</v>
       </c>
     </row>
     <row r="57">
@@ -981,10 +981,10 @@
         <v>40599</v>
       </c>
       <c r="B57" t="n">
-        <v>3897.95342969202</v>
+        <v>3897.95342969205</v>
       </c>
       <c r="C57" t="n">
-        <v>3744.92149339249</v>
+        <v>3743.02942847225</v>
       </c>
     </row>
     <row r="58">
@@ -992,10 +992,10 @@
         <v>40600</v>
       </c>
       <c r="B58" t="n">
-        <v>4102.61575141861</v>
+        <v>4102.61575141852</v>
       </c>
       <c r="C58" t="n">
-        <v>3444.28035985388</v>
+        <v>3442.8510529609</v>
       </c>
     </row>
     <row r="59">
@@ -1003,10 +1003,10 @@
         <v>40601</v>
       </c>
       <c r="B59" t="n">
-        <v>3330.24669392818</v>
+        <v>3330.2466939281</v>
       </c>
       <c r="C59" t="n">
-        <v>3351.78070446219</v>
+        <v>3350.68915148869</v>
       </c>
     </row>
     <row r="60">
@@ -1014,10 +1014,10 @@
         <v>40602</v>
       </c>
       <c r="B60" t="n">
-        <v>3274.71220360437</v>
+        <v>3274.7122036043</v>
       </c>
       <c r="C60" t="n">
-        <v>3412.82571998967</v>
+        <v>3412.13765702708</v>
       </c>
     </row>
   </sheetData>
